--- a/data/financial_statements/sofp/BRO.xlsx
+++ b/data/financial_statements/sofp/BRO.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -116,9 +236,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,12 +288,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -473,1565 +587,1601 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>2033200000</v>
+      </c>
+      <c r="C2">
         <v>1850800000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3287500000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2426100000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1470200000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1425891000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1351020000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1140724000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1271915000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1501841000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1062204000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>775178000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>962975000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>874595000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>814781000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>624887000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>777596000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>724687000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>787159000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>826377000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>824088000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>823207000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>876930000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>826089000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>781283000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>766962000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>731585000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>632921000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>673173000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>666464000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>658500000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>625540000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>729817000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>657938000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>609461000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>502889000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>452961000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>418280000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>596063000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>526974000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>2355300000</v>
+      </c>
+      <c r="C3">
         <v>2370300000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1420100000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1358000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1279400000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1426085000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1301897000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1179361000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1142717000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1127986000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1126106000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1033676000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1001339000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1205399000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>991245000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>898488000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>910211000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>834894000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>825457000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>842315000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1024222000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>2686229000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>522149000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>525530000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>580565000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>801456000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>533039000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>488131000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>465853000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>461621000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>494786000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>444247000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>437575000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>415495000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>461222000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>404471000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>395915000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>365705000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>310486000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>303882000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>4388500000</v>
+      </c>
+      <c r="C4">
         <v>4221100000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>4707600000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3784100000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2749600000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2851976000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2652917000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2320085000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2414632000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2629827000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2188310000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1808854000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1964314000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2079994000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1806026000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1523375000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1687807000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1559581000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1612616000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1668692000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1848310000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>3509436000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>1399079000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>1351619000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>1361848000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>1568418000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>1264624000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>1121052000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>1139026000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>1128085000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>1153286000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>1069787000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>1167392000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>1073433000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>1070683000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>907360000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>848876000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>783985000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>906549000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>830856000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>239900000</v>
+      </c>
+      <c r="C5">
         <v>239200000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>214600000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>214500000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>212000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>208343000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>209279000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>205766000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>201115000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>187611000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>174376000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>159361000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>148627000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>128889000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>122511000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>117364000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>100395000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>89772000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>85213000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>81131000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>77086000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>71296000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>72747000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>72607000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>75807000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>77771000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>80488000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>80899000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>81753000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>81338000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>82805000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>83220000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>84668000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>88176000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>86370000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>74576000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>74733000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>74482000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>72929000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>73067000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>34400000</v>
+      </c>
+      <c r="C6">
         <v>35200000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>38600000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>42600000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>43900000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>45777000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>45702000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>43660000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>43303000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>42954000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>39703000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>39935000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>39703000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>38072000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>35438000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>28046000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>30262000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>29995000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>31253000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>38398000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>38914000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>43241000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>41040000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>37775000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>38096000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>39594000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>39069000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>34395000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>31826000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>33488000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>31924000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>29653000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>31019000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>31441000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>31494000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>10967000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>10640000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>11693000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>12205000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>7228000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>8269400000</v>
+      </c>
+      <c r="C7">
         <v>8110300000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>6294700000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>6311900000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5818300000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>5610436000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>5558969000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>5533406000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>5445578000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>5101145000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>4988662000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>4814450000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>4662862000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>4625683000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>4451244000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>4420856000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>4331593000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>3609860000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>3486408000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>3377729000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>3357084000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>3357542000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>3363978000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>3361350000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>3382856000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>3398505000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>3410699000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>3355190000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>3331363000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>3317101000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>3331962000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>3262704000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>3245253000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>3318207000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>3338241000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>2608065000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>2625061000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>2616238000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>2261595000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>2259968000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA8">
         <v>16961000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>15552000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>14127000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>24635000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>17152000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>16053000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>13906000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>25431000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>19376000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>16312000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>12380000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>29276000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>21268000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>15051000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>16041000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>826400000</v>
+      </c>
+      <c r="C9">
         <v>838000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>821100000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>715600000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>774600000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>724806000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>711526000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>626930000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>674866000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>647538000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>619685000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>566154000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>623027000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>614607000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>565521000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>542068000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>538611000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>513598000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>486067000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>449133000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>426156000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>432762000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>402165000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>374093000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>404127000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>420778000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>396445000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>387297000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>395876000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>425028000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>404807000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>379672000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>402695000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>415115000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>387372000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>60941000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>60922000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>47122000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>57991000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>43200000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>9370101000</v>
+      </c>
+      <c r="C10">
         <v>9222700000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>7369000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>7284600000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>6848800000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>6589362000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>6525476000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>6409762000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>6364862000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>5979248000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>5822426000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>5579900000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>5474219000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>5407251000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>5174714000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>5108334000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>5000861000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>4243225000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>4088941000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>3946391000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>3899240000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>3904841000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>3879930000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>3845825000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>3900886000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>3953609000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>3942253000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>3871908000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>3865453000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>3874107000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>3867551000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>3769155000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>3789066000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>3872315000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>3859789000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>2766929000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>2800632000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>2770803000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>2419771000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>2399504000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>13973500000</v>
+      </c>
+      <c r="C11">
         <v>13658300000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>12279900000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>11272900000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>9795400000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>9629166000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>9357895000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>8910793000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>8966492000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>8795379000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>8201058000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>7582345000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>7622821000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>7680664000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>7164767000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>6806289000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>6688668000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>5802806000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>5701557000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>5615083000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>5747550000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>7414277000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>5279009000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>5197444000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>5262734000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>5522027000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>5206877000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>4992960000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>5004479000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>5002192000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>5020837000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>4838942000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>4956458000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>4945748000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>4930472000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>3674289000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>3649508000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>3554788000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>3326320000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>3230360000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>1539900000</v>
+      </c>
+      <c r="C12">
         <v>1740500000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>722400000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>631700000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>698000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2212769000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2135557000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1893063000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1912615000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1861640000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1905816000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1620971000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1652644000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1821758000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1593042000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1398087000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1453676000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1367996000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1413809000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1357604000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>1638726000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>3307361000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>1222566000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>1158232000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>1187668000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>1450043000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>1213640000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>1059688000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>1063355000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>1050893000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>1131945000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>1054847000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>1042372000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>1051534000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>1126314000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>686051000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>649477000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>617635000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>554629000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>531936000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>541500000</v>
+      </c>
+      <c r="C13">
         <v>435900000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>421400000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>327000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>456200000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>386372000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>365365000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>277919000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>371737000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>312501000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>289960000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>210898000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>337717000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>272166000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>259068000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>193986000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>279310000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>234731000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>217898000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>157028000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>228748000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>204153000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>176971000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>124676000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>201989000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>171200000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>163523000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>143176000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>192067000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>172404000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>162019000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>127100000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>181156000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>172742000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>137695000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>106441000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>157400000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>144154000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>107153000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>85285000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
-        <v>67500000</v>
+        <v>250600000</v>
       </c>
       <c r="C14">
         <v>67500000</v>
       </c>
       <c r="D14">
-        <v>42500000</v>
+        <v>67500000</v>
       </c>
       <c r="E14">
         <v>42500000</v>
       </c>
       <c r="F14">
+        <v>42500000</v>
+      </c>
+      <c r="G14">
         <v>290000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>300000000</v>
-      </c>
-      <c r="H14">
-        <v>70000000</v>
       </c>
       <c r="I14">
         <v>70000000</v>
       </c>
       <c r="J14">
+        <v>70000000</v>
+      </c>
+      <c r="K14">
         <v>66250000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>62500000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>58750000</v>
-      </c>
-      <c r="M14">
-        <v>55000000</v>
       </c>
       <c r="N14">
         <v>55000000</v>
@@ -2043,16 +2193,16 @@
         <v>55000000</v>
       </c>
       <c r="Q14">
+        <v>55000000</v>
+      </c>
+      <c r="R14">
         <v>50000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>30000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>25000000</v>
-      </c>
-      <c r="T14">
-        <v>120000000</v>
       </c>
       <c r="U14">
         <v>120000000</v>
@@ -2061,16 +2211,16 @@
         <v>120000000</v>
       </c>
       <c r="W14">
+        <v>120000000</v>
+      </c>
+      <c r="X14">
         <v>20000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>55000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>55500000</v>
-      </c>
-      <c r="Z14">
-        <v>80492000</v>
       </c>
       <c r="AA14">
         <v>80492000</v>
@@ -2079,1027 +2229,1051 @@
         <v>80492000</v>
       </c>
       <c r="AC14">
+        <v>80492000</v>
+      </c>
+      <c r="AD14">
         <v>73125000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>41250000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>34375000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>27500000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>45625000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>38750000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>6609000</v>
-      </c>
-      <c r="AK14">
-        <v>100000000</v>
       </c>
       <c r="AL14">
         <v>100000000</v>
       </c>
       <c r="AM14">
+        <v>100000000</v>
+      </c>
+      <c r="AN14">
         <v>33000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>93000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>2332000000</v>
+      </c>
+      <c r="C15">
         <v>2243900000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1211300000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1001200000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1196700000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2889141000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2800922000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2240982000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2354352000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2240391000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2258276000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1890619000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2045361000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>2148924000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>1907110000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1647073000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1782986000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>1632727000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1656707000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>1634632000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>1987474000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>3631514000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>1419537000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>1337908000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>1445157000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>1701735000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>1457655000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>1283356000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>1328547000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>1264547000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>1328339000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>1209447000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>1269153000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>1263026000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1270618000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>792492000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>906877000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>861789000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>661815000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>617314100</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>3691500000</v>
+      </c>
+      <c r="C16">
         <v>4040400000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>4156300000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>3497100000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1980400000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1755487000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1762294000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2009100000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2025906000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2042674000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1566409000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1483355000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1500343000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1513560000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1426777000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>1439998000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1456990000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>832361000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>841959000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>851548000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>856141000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>860741000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>965391000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>1005044000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>1018372000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>1031693000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>1045004000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>1058327000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>1071618000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>1118589000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>1132300000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>1146010000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>1152846000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>1159682000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>1168125000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>480000000</v>
-      </c>
-      <c r="AK16">
-        <v>380000000</v>
       </c>
       <c r="AL16">
         <v>380000000</v>
       </c>
       <c r="AM16">
-        <v>450000000</v>
+        <v>380000000</v>
       </c>
       <c r="AN16">
         <v>450000000</v>
       </c>
+      <c r="AO16">
+        <v>450000000</v>
+      </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>520000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>501000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>452000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>490000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>496000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>451000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>423000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>459000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>415000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>374000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>388000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>424000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>584000000</v>
+      </c>
+      <c r="C18">
         <v>572300000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>443100000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>432000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>386800000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>374595000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>371054000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>359629000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>344222000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>332900000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>323558000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>323404000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>328277000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>322024000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>310510000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>300857000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>315732000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>284330000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>284309000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>288653000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>256185000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>382228000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>373089000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>368323000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>357686000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>376658000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>371099000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>363583000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>360949000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>347615000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>340244000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>336597000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>341497000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>345558000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>337520000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>285514000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>291704000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>284257000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>249195000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>244883000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>2563500000</v>
+      </c>
+      <c r="C19">
         <v>2299700000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1999900000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1821500000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1854600000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>330753000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>313542000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>303088000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>314854000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>304823000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>295580000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>228378000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>230706000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>204536000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>170184000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>160107000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>132392000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>113980000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>87100000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>69657000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>65051000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>56147000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>62759000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>70373000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>81308000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>87169000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>80872000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>89161000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>93589000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>85706000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>106900000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>85426000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>79217000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>72187000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>72695000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>63423000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>63786000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>63958000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>63252000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>58907000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>6839000000</v>
+      </c>
+      <c r="C20">
         <v>6912399000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>6599300000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>5750600000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>4221800000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2460835000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>2446890000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>2671817000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>2684982000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>2680397000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>2185547000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>2035137000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>2059326000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>2040120000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>1907471000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>1900962000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>1905114000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>1230671000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>1213368000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>1209858000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>1177377000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>1299116000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>1401239000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>1443740000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>1457366000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>1495520000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>1496975000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>1511071000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>1526156000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>1551910000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>1579444000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>1568033000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>1573560000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>1577427000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>1578340000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>828937000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>735490000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>728215000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>762447000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>753790000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>9366900000</v>
+      </c>
+      <c r="C21">
         <v>9347700000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>7996500000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>6937500000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>5598500000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>5521547000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>5411893000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>5079796000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>5212269000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>5093369000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>4617540000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>4102504000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>4272542000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>4366141000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>3984136000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>3707858000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>3688100000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>2863398000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>2870075000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>2844490000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>3164851000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>4930630000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>2820776000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>2781648000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>2902523000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>3197255000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>2954630000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>2794427000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>2854703000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>2816457000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>2907783000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>2777480000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>2842713000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>2840453000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>2848958000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>1621429000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>1642367000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>1590004000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>1424262000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>1371104000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>919700000</v>
+      </c>
+      <c r="C22">
         <v>903400000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>835700000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>823500000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>849400000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>830066000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>784620000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>772866000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>794909000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>763749000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>749285000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>718261000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>716049000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>703949000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>653415000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>621249000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>615180000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>525465000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>502950000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>495278000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>483733000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>493821000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>479193000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>472749000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>468443000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>464028000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>445901000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>441243000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>426498000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>439335000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>403600000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>397498000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>405982000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>398646000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>386233000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>379811000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>371960000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>362293000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>344354000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>340606000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
         <v>30300000</v>
       </c>
       <c r="C23">
-        <v>30200000</v>
+        <v>30300000</v>
       </c>
       <c r="D23">
         <v>30200000</v>
       </c>
       <c r="E23">
+        <v>30200000</v>
+      </c>
+      <c r="F23">
         <v>30100000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>30093000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>30010000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>30022000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>29969000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>29937000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>29915000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>29893000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>29711000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>29714000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>29582000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>29584000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>29338000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>29011000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>28708000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>28696000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>28689000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>14884000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>14826000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>14828000</v>
-      </c>
-      <c r="Y23">
-        <v>14811000</v>
       </c>
       <c r="Z23">
         <v>14811000</v>
       </c>
       <c r="AA23">
+        <v>14811000</v>
+      </c>
+      <c r="AB23">
         <v>14769000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>14797000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>14642000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>14641000</v>
-      </c>
-      <c r="AE23">
-        <v>14587000</v>
       </c>
       <c r="AF23">
         <v>14587000</v>
@@ -3108,152 +3282,158 @@
         <v>14587000</v>
       </c>
       <c r="AH23">
+        <v>14587000</v>
+      </c>
+      <c r="AI23">
         <v>14590000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>14539000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>14541000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>14542000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>14544000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>14405000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>14399000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>4553000000</v>
+      </c>
+      <c r="C24">
         <v>4440400000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>4308300000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>4192100000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>4000700000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>3927912000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>3807684000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>3694457000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>3520683000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>3451880000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>3341990000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>3269359000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>3140762000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>3088174000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>2995206000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>2925170000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>2833622000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>2782504000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>2697396000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>2644191000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>2456599000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>2290014000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>2233056000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>2185902000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>2134640000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>2095958000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>2041602000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>1992518000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>1947411000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>1906744000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>1854877000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>1809367000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>1768201000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>1759593000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>1705767000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>1658508000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>1620639000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>1587947000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>1543299000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>1504251000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
         <v>748000000</v>
@@ -3262,49 +3442,49 @@
         <v>748000000</v>
       </c>
       <c r="D25">
+        <v>748000000</v>
+      </c>
+      <c r="E25">
         <v>698000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>673900000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>673902000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>672763000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>661358000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>591338000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>543556000</v>
-      </c>
-      <c r="K25">
-        <v>537672000</v>
       </c>
       <c r="L25">
         <v>537672000</v>
       </c>
       <c r="M25">
+        <v>537672000</v>
+      </c>
+      <c r="N25">
         <v>536243000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>507314000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>497572000</v>
-      </c>
-      <c r="P25">
-        <v>477572000</v>
       </c>
       <c r="Q25">
         <v>477572000</v>
       </c>
       <c r="R25">
-        <v>397572000</v>
+        <v>477572000</v>
       </c>
       <c r="S25">
         <v>397572000</v>
@@ -3313,22 +3493,22 @@
         <v>397572000</v>
       </c>
       <c r="U25">
+        <v>397572000</v>
+      </c>
+      <c r="V25">
         <v>386322000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>315072000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>268842000</v>
-      </c>
-      <c r="X25">
-        <v>257683000</v>
       </c>
       <c r="Y25">
         <v>257683000</v>
       </c>
       <c r="Z25">
-        <v>250025000</v>
+        <v>257683000</v>
       </c>
       <c r="AA25">
         <v>250025000</v>
@@ -3337,867 +3517,888 @@
         <v>250025000</v>
       </c>
       <c r="AC25">
+        <v>250025000</v>
+      </c>
+      <c r="AD25">
         <v>238775000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>175025000</v>
-      </c>
-      <c r="AE25">
-        <v>160025000</v>
       </c>
       <c r="AF25">
         <v>160025000</v>
       </c>
       <c r="AG25">
+        <v>160025000</v>
+      </c>
+      <c r="AH25">
         <v>75025000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>67525000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>25025000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>4606600000</v>
+      </c>
+      <c r="C26">
         <v>4310600000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>4283400000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>4335400000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>4196900000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>4107620000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>3946002000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>3830997000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>3754223000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>3702010000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>3583518000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>3479841000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>3350279000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>3314523000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>3180631000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>3098431000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>3000568000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>2939408000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>2831482000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>2770593000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>2582699000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>2483647000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>2458233000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>2415796000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>2360211000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>2324772000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>2252247000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>2198533000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>2149776000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>2185735000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>2113054000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>2061462000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>2113745000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>2105304000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>2081514000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>2052860000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>2007141000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>1964784000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>1902058000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>1859256000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>4606600000</v>
+      </c>
+      <c r="C27">
         <v>4310600000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>4283400000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>4335400000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>4196900000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>4107619000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>3946002000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>3830997000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>3754223000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>3702010000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>3583518000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>3479841000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>3350279000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>3314523000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>3180631000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>3098431000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>3000568000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>2939408000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>2831482000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>2770593000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>2582699000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>2483647000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>2458233000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>2415796000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>2360211000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>2324772000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>2252247000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>2198533000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>2149776000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>2185735000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>2113054000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>2061462000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>2113745000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>2105295000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>2081514000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>2052860000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>2007141000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>1964784000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>1902058000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>1859256000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>13973500000</v>
+      </c>
+      <c r="C28">
         <v>13658300000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>12279900000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>11272900000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>9795400000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>9629166000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>9357895000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>8910793000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>8966492000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>8795379000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>8201058000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>7582345000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>7622821000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>7680664000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>7164767000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>6806289000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>6688668000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>5802806000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>5701557000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>5615083000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>5747550000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>7414277000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>5279009000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>5197444000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>5262734000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>5522027000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>5206877000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>4992960000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>5004479000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>5002192000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>5020837000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>4838942000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>4956458000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>4945748000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>4930472000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>3674289000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>3649508000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>3554788000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>3326320000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>3230360000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>283200000</v>
+      </c>
+      <c r="C29">
         <v>283300000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>282200000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>283100000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>282500000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>282432000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>281621000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>281980000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>283004000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>283745000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>283658000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>283441000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>281655000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>282498000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>281456000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>282048000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>279583000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>279222000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>276198000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>276074000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>276210000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>279036000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>279998000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>280548000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>280208000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>280634000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>279800000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>280346000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>277970000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>281940000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>281642000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>281628000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>286972000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>287530000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>289088000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>290818000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>290838000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>290882000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>288090000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>287980000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>-3662801000</v>
+      </c>
+      <c r="C30">
         <v>-3799700000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-2011300000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-1976500000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-1621399000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-1502816000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-1612968000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-1702409000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-1691355000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-1399135000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-1405145000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-1334609000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>-1312583000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-1311160000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>-1270613000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-1322425000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-1331025000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>-670451900</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-654925800</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>-607136000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-774385300</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>-873895000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-905745100</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>-945554200</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-1022645000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>-1073733000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>-1158452000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-1156657000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>-1181587000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>-1131366000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>-1218908000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-1201242000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>-1131508000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>-1212912000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>-1256727000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>-555204800</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-617919900</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>-651453700</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>-359536900</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>-400711900</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>1908900000</v>
+      </c>
+      <c r="C31">
         <v>2257100000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>936300000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1113500000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>552700000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>619596000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>711274000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>938376000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>823991000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>607083000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>566705000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>766927000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>592368000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>693965000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>666996000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>870111000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>729394000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>137674000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>79800000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>145171000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>152053000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>157534000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>108461000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>233955000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>292589000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>345223000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>393911000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>505898000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>471570000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>493375000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>508175000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>547970000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>468654000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>540494000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>565273000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>-22889000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>27039000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>61720000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>-146030000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>-76881000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>3942100000</v>
+      </c>
+      <c r="C32">
         <v>4107900000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>4223800000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>3539600000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>2022900000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>2045487000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>2062294000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>2079100000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>2095906000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>2108924000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>1628909000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>1542105000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>1555343000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>1568560000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>1481777000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>1494998000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>1506990000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>862361000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>866959000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>971548000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>976141000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>980741000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>985391000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>1060044000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>1073872000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>1112185000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>1125496000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>1138819000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>1144743000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>1159839000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>1166675000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>1173510000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>1198471000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>1198432000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>1174734000</v>
-      </c>
-      <c r="AJ32">
-        <v>480000000</v>
       </c>
       <c r="AK32">
         <v>480000000</v>
@@ -4206,9 +4407,12 @@
         <v>480000000</v>
       </c>
       <c r="AM32">
+        <v>480000000</v>
+      </c>
+      <c r="AN32">
         <v>450033000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>450093000</v>
       </c>
     </row>
